--- a/intensities/armeijamalli.xlsx
+++ b/intensities/armeijamalli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/ty-llisyyspaperi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F20FE-E0C6-FD4C-8A9D-C27AD615BC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279DE121-BCAB-D44B-8A8C-72D07D69A6E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15520" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
+    <workbookView xWindow="1180" yWindow="1380" windowWidth="27240" windowHeight="15520" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
   <sheets>
     <sheet name="miehet" sheetId="1" r:id="rId1"/>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92590640-645E-204B-9831-3012D0CA494E}">
-  <dimension ref="B1:R310"/>
+  <dimension ref="B1:V310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,7 +467,7 @@
     <col min="4" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>6</v>
       </c>
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
@@ -527,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,8 +573,20 @@
         <f>D5+P5-O5</f>
         <v>1.5498737373737373E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <f>L5/4</f>
+        <v>0.20652073931780299</v>
+      </c>
+      <c r="U5">
+        <f>(1-T5)^4</f>
+        <v>0.39640791740476089</v>
+      </c>
+      <c r="V5">
+        <f>1-U5</f>
+        <v>0.60359208259523911</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>1+C5</f>
         <v>21</v>
@@ -591,7 +603,7 @@
         <v>-9.2015847818658712E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G54" si="2">IF(F6/D6&lt;0,-F6/D6,0)</f>
+        <f t="shared" ref="G6:G14" si="2">IF(F6/D6&lt;0,-F6/D6,0)</f>
         <v>0.59369899366499146</v>
       </c>
       <c r="H6">
@@ -619,7 +631,7 @@
         <v>6.2971525918715018E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <f t="shared" ref="C7:C55" si="8">1+C6</f>
         <v>22</v>
@@ -664,7 +676,7 @@
         <v>3.9906103286384978E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <f t="shared" si="8"/>
         <v>23</v>
@@ -709,7 +721,7 @@
         <v>2.244381942668826E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -754,7 +766,7 @@
         <v>1.7508189314356716E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -799,7 +811,7 @@
         <v>1.1070608883488591E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <f t="shared" si="8"/>
         <v>26</v>
@@ -844,7 +856,7 @@
         <v>9.835259404966806E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -889,7 +901,7 @@
         <v>7.5289056197902667E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -933,7 +945,7 @@
         <v>3.7644528098951333E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -978,7 +990,7 @@
         <v>2.739650968466617E-5</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -1029,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <f t="shared" si="8"/>
         <v>31</v>
@@ -3945,7 +3957,7 @@
         <v>-1.1064936818605429E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G54" si="2">IF(F6/D6&lt;0,-F6/D6,0)</f>
+        <f t="shared" ref="G6:G8" si="2">IF(F6/D6&lt;0,-F6/D6,0)</f>
         <v>0.61910370562471184</v>
       </c>
       <c r="H6">
@@ -4347,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H6:H54" si="8">IF(F15/E15&gt;0,F15/E15,0)</f>
+        <f t="shared" ref="H15:H54" si="8">IF(F15/E15&gt;0,F15/E15,0)</f>
         <v>0</v>
       </c>
       <c r="I15" s="3">
